--- a/data/pca/factorExposure/factorExposure_2015-07-08.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-07-08.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +723,109 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02107556299267113</v>
+        <v>-0.0115163189760765</v>
       </c>
       <c r="C2">
-        <v>-0.02423206244369157</v>
+        <v>-0.05131814609492559</v>
       </c>
       <c r="D2">
-        <v>0.1230609761780712</v>
+        <v>-0.1407495961837761</v>
       </c>
       <c r="E2">
-        <v>-0.005626689578674707</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.0104258790950662</v>
+      </c>
+      <c r="F2">
+        <v>0.01503946017860857</v>
+      </c>
+      <c r="G2">
+        <v>-0.1139336388501586</v>
+      </c>
+      <c r="H2">
+        <v>0.0729761614737291</v>
+      </c>
+      <c r="I2">
+        <v>-0.02918104428781561</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.003080392509300954</v>
+        <v>0.001837527215591741</v>
       </c>
       <c r="C3">
-        <v>-0.01536436153715847</v>
+        <v>-0.01166297745433721</v>
       </c>
       <c r="D3">
-        <v>0.01427304518499853</v>
+        <v>-0.009946444535605356</v>
       </c>
       <c r="E3">
-        <v>0.006300380949074241</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.01911793641438132</v>
+      </c>
+      <c r="F3">
+        <v>-0.009529837684178302</v>
+      </c>
+      <c r="G3">
+        <v>-0.002601583916771649</v>
+      </c>
+      <c r="H3">
+        <v>0.01057861011521632</v>
+      </c>
+      <c r="I3">
+        <v>0.02591958924273982</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04816764274691527</v>
+        <v>-0.02087487342968808</v>
       </c>
       <c r="C4">
-        <v>-0.06994532862561446</v>
+        <v>-0.1007436289574163</v>
       </c>
       <c r="D4">
-        <v>0.1306227711002892</v>
+        <v>-0.1390395391803794</v>
       </c>
       <c r="E4">
-        <v>0.07229003859138031</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.01501424999541475</v>
+      </c>
+      <c r="F4">
+        <v>0.08791351038440516</v>
+      </c>
+      <c r="G4">
+        <v>-0.008075816097338193</v>
+      </c>
+      <c r="H4">
+        <v>0.04884646727791586</v>
+      </c>
+      <c r="I4">
+        <v>-0.03900477744116938</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02608334461437256</v>
+        <v>-0.02844593301831791</v>
       </c>
       <c r="C6">
-        <v>-0.01066538743449504</v>
+        <v>-0.02905359334630402</v>
       </c>
       <c r="D6">
-        <v>0.1430537134600865</v>
+        <v>-0.1275348986382618</v>
       </c>
       <c r="E6">
-        <v>0.0312602305961412</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.04766171439570112</v>
+      </c>
+      <c r="F6">
+        <v>0.05329387899100135</v>
+      </c>
+      <c r="G6">
+        <v>-0.007946255714085516</v>
+      </c>
+      <c r="H6">
+        <v>0.06423803951572218</v>
+      </c>
+      <c r="I6">
+        <v>0.01990904304510397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.009366193176780682</v>
+        <v>-0.009327828750077363</v>
       </c>
       <c r="C7">
-        <v>-0.02342351036446567</v>
+        <v>-0.03379256728463422</v>
       </c>
       <c r="D7">
-        <v>0.1149173393519587</v>
+        <v>-0.1016666261444549</v>
       </c>
       <c r="E7">
-        <v>-0.004443742264726204</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.0500543534162201</v>
+      </c>
+      <c r="F7">
+        <v>0.006564960087839918</v>
+      </c>
+      <c r="G7">
+        <v>0.01160741301131893</v>
+      </c>
+      <c r="H7">
+        <v>0.07236728298344393</v>
+      </c>
+      <c r="I7">
+        <v>0.01826435930361852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.000647960102870725</v>
+        <v>0.00990702753343219</v>
       </c>
       <c r="C8">
-        <v>-0.02813999930781553</v>
+        <v>-0.03338195184966732</v>
       </c>
       <c r="D8">
-        <v>0.0841460068091331</v>
+        <v>-0.08178908050314576</v>
       </c>
       <c r="E8">
-        <v>0.01949253755842994</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02002023349173291</v>
+      </c>
+      <c r="F8">
+        <v>0.04330974287050391</v>
+      </c>
+      <c r="G8">
+        <v>-0.06983732843765245</v>
+      </c>
+      <c r="H8">
+        <v>0.01577712867494277</v>
+      </c>
+      <c r="I8">
+        <v>0.0397996266906556</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.04098089940521222</v>
+        <v>-0.01541132243001726</v>
       </c>
       <c r="C9">
-        <v>-0.06071216129991985</v>
+        <v>-0.08450455305905763</v>
       </c>
       <c r="D9">
-        <v>0.1315365964471741</v>
+        <v>-0.1205450630855043</v>
       </c>
       <c r="E9">
-        <v>0.05616937441540912</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.005035635451797161</v>
+      </c>
+      <c r="F9">
+        <v>0.0581089617597496</v>
+      </c>
+      <c r="G9">
+        <v>0.01353959836772459</v>
+      </c>
+      <c r="H9">
+        <v>0.06093695330774034</v>
+      </c>
+      <c r="I9">
+        <v>-0.008072899909954391</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1487892700067118</v>
+        <v>-0.2307784282257595</v>
       </c>
       <c r="C10">
-        <v>0.1852234704127031</v>
+        <v>0.1038463018806307</v>
       </c>
       <c r="D10">
-        <v>0.01461005684342541</v>
+        <v>0.00353713026476564</v>
       </c>
       <c r="E10">
-        <v>0.04760558600690547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.02461291075565671</v>
+      </c>
+      <c r="F10">
+        <v>0.03733827204491075</v>
+      </c>
+      <c r="G10">
+        <v>-0.00492114536630226</v>
+      </c>
+      <c r="H10">
+        <v>-0.063522409695322</v>
+      </c>
+      <c r="I10">
+        <v>0.1205653147096155</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.02414402219317812</v>
+        <v>-0.01024724504321691</v>
       </c>
       <c r="C11">
-        <v>-0.03970880250794379</v>
+        <v>-0.0524969677473443</v>
       </c>
       <c r="D11">
-        <v>0.05136161591714429</v>
+        <v>-0.04420519735225742</v>
       </c>
       <c r="E11">
-        <v>-0.01726953704520177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.01848991638783717</v>
+      </c>
+      <c r="F11">
+        <v>-0.01087895685226451</v>
+      </c>
+      <c r="G11">
+        <v>0.007012914423523306</v>
+      </c>
+      <c r="H11">
+        <v>0.04981151644490927</v>
+      </c>
+      <c r="I11">
+        <v>-0.03950618559456416</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.02663830993050983</v>
+        <v>-0.01082530017715177</v>
       </c>
       <c r="C12">
-        <v>-0.04045411091161204</v>
+        <v>-0.05020340253787055</v>
       </c>
       <c r="D12">
-        <v>0.06620470441911068</v>
+        <v>-0.04995588856431325</v>
       </c>
       <c r="E12">
-        <v>-0.009090548602932574</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01782251017277262</v>
+      </c>
+      <c r="F12">
+        <v>-0.01737535463531655</v>
+      </c>
+      <c r="G12">
+        <v>0.03078282329028586</v>
+      </c>
+      <c r="H12">
+        <v>0.07001072998217057</v>
+      </c>
+      <c r="I12">
+        <v>-0.0244918860938924</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.007800977127120855</v>
+        <v>0.0004626040058932466</v>
       </c>
       <c r="C13">
-        <v>-0.02704928441991436</v>
+        <v>-0.0445950161687883</v>
       </c>
       <c r="D13">
-        <v>0.1561821629247065</v>
+        <v>-0.1538232707054582</v>
       </c>
       <c r="E13">
-        <v>0.02568914331920204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.03844155404728155</v>
+      </c>
+      <c r="F13">
+        <v>0.03506565908403487</v>
+      </c>
+      <c r="G13">
+        <v>-0.0272598911486795</v>
+      </c>
+      <c r="H13">
+        <v>0.08620544655038614</v>
+      </c>
+      <c r="I13">
+        <v>0.09231359257248628</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.0009898681883706015</v>
+        <v>0.0007715694101800138</v>
       </c>
       <c r="C14">
-        <v>-0.02169319819247655</v>
+        <v>-0.02849568506833453</v>
       </c>
       <c r="D14">
-        <v>0.107775567129418</v>
+        <v>-0.1037345596520391</v>
       </c>
       <c r="E14">
-        <v>0.004697660886963532</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.03300859266891935</v>
+      </c>
+      <c r="F14">
+        <v>0.02262954724086989</v>
+      </c>
+      <c r="G14">
+        <v>-2.80061171579586e-05</v>
+      </c>
+      <c r="H14">
+        <v>0.1241147105761474</v>
+      </c>
+      <c r="I14">
+        <v>0.01390627398730554</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.0009802799756477856</v>
+        <v>0.0008673311720114757</v>
       </c>
       <c r="C15">
-        <v>-0.01125707492384259</v>
+        <v>-0.0190462564476429</v>
       </c>
       <c r="D15">
-        <v>0.02673788838215625</v>
+        <v>-0.05312593456880269</v>
       </c>
       <c r="E15">
-        <v>-0.00586545635600109</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.006050157666070578</v>
+      </c>
+      <c r="F15">
+        <v>0.002986088028299316</v>
+      </c>
+      <c r="G15">
+        <v>-0.01954512177352776</v>
+      </c>
+      <c r="H15">
+        <v>0.02304392607376594</v>
+      </c>
+      <c r="I15">
+        <v>-0.01954233708026148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0241987825847891</v>
+        <v>-0.010526006487492</v>
       </c>
       <c r="C16">
-        <v>-0.03799621987626582</v>
+        <v>-0.04830034629539828</v>
       </c>
       <c r="D16">
-        <v>0.05814703920932406</v>
+        <v>-0.04546088862162059</v>
       </c>
       <c r="E16">
-        <v>-0.01094998437198913</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02032770516119373</v>
+      </c>
+      <c r="F16">
+        <v>-0.007975816028405136</v>
+      </c>
+      <c r="G16">
+        <v>0.01930927086592582</v>
+      </c>
+      <c r="H16">
+        <v>0.05277164234214465</v>
+      </c>
+      <c r="I16">
+        <v>-0.03731123902079712</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.008361547978263145</v>
+        <v>-0.0004274943775926471</v>
       </c>
       <c r="C19">
-        <v>-0.02434528329514116</v>
+        <v>-0.02251997978097642</v>
       </c>
       <c r="D19">
-        <v>0.1196126402487842</v>
+        <v>-0.07531447081638584</v>
       </c>
       <c r="E19">
-        <v>0.03928347787922276</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.02130784763522001</v>
+      </c>
+      <c r="F19">
+        <v>0.009212231419749525</v>
+      </c>
+      <c r="G19">
+        <v>-0.01297733398707238</v>
+      </c>
+      <c r="H19">
+        <v>0.07518917067602911</v>
+      </c>
+      <c r="I19">
+        <v>0.04751756266411154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.007015802200366898</v>
+        <v>-0.004559767330539724</v>
       </c>
       <c r="C20">
-        <v>-0.0270677375533484</v>
+        <v>-0.03881656406203262</v>
       </c>
       <c r="D20">
-        <v>0.09336612215871502</v>
+        <v>-0.09742470217574609</v>
       </c>
       <c r="E20">
-        <v>0.03077793932542476</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.0079307460003595</v>
+      </c>
+      <c r="F20">
+        <v>0.02698364219046522</v>
+      </c>
+      <c r="G20">
+        <v>0.003359844028213132</v>
+      </c>
+      <c r="H20">
+        <v>0.05935034185609695</v>
+      </c>
+      <c r="I20">
+        <v>-0.001711235722368798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.01036909779232893</v>
+        <v>-0.004142872770948628</v>
       </c>
       <c r="C21">
-        <v>-0.0330746796276515</v>
+        <v>-0.04192574742496409</v>
       </c>
       <c r="D21">
-        <v>0.170229200926703</v>
+        <v>-0.1349647658375987</v>
       </c>
       <c r="E21">
-        <v>0.06114953048684227</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.0004101100226161953</v>
+      </c>
+      <c r="F21">
+        <v>0.07022498190627892</v>
+      </c>
+      <c r="G21">
+        <v>-0.0001744595874459372</v>
+      </c>
+      <c r="H21">
+        <v>0.1797994508318555</v>
+      </c>
+      <c r="I21">
+        <v>0.1167462091843634</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.003807654051766697</v>
+        <v>0.01071863580960594</v>
       </c>
       <c r="C22">
-        <v>-0.06170577433209692</v>
+        <v>-0.07963301166112384</v>
       </c>
       <c r="D22">
-        <v>0.2129409427469551</v>
+        <v>-0.2579694261723918</v>
       </c>
       <c r="E22">
-        <v>-0.03889920536056906</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.04807561546636245</v>
+      </c>
+      <c r="F22">
+        <v>0.03540672878845952</v>
+      </c>
+      <c r="G22">
+        <v>-0.3726575041783465</v>
+      </c>
+      <c r="H22">
+        <v>-0.3715447433190378</v>
+      </c>
+      <c r="I22">
+        <v>-0.1198056145234494</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.004085519263775012</v>
+        <v>0.01021206170604539</v>
       </c>
       <c r="C23">
-        <v>-0.06216466092804144</v>
+        <v>-0.08057086822307748</v>
       </c>
       <c r="D23">
-        <v>0.2124959632052736</v>
+        <v>-0.2585623438055404</v>
       </c>
       <c r="E23">
-        <v>-0.03873415089288271</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.04496327428876395</v>
+      </c>
+      <c r="F23">
+        <v>0.03478477646291124</v>
+      </c>
+      <c r="G23">
+        <v>-0.3715602893593346</v>
+      </c>
+      <c r="H23">
+        <v>-0.3721406775209246</v>
+      </c>
+      <c r="I23">
+        <v>-0.121609624401656</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.03171606719891494</v>
+        <v>-0.01022963075934049</v>
       </c>
       <c r="C24">
-        <v>-0.05518169594729033</v>
+        <v>-0.06534658125149116</v>
       </c>
       <c r="D24">
-        <v>0.07097698588210516</v>
+        <v>-0.05384881161414505</v>
       </c>
       <c r="E24">
-        <v>-0.008619919217947362</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.02477193289842795</v>
+      </c>
+      <c r="F24">
+        <v>-0.006484275381969186</v>
+      </c>
+      <c r="G24">
+        <v>0.01532448003124108</v>
+      </c>
+      <c r="H24">
+        <v>0.07717644567873279</v>
+      </c>
+      <c r="I24">
+        <v>-0.03652169451475332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.03312845713848508</v>
+        <v>-0.01329815058064753</v>
       </c>
       <c r="C25">
-        <v>-0.04666005043132615</v>
+        <v>-0.06065896506103757</v>
       </c>
       <c r="D25">
-        <v>0.06358884087156758</v>
+        <v>-0.05095198120671428</v>
       </c>
       <c r="E25">
-        <v>-0.002617462497850752</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01027346397193741</v>
+      </c>
+      <c r="F25">
+        <v>-0.007383394875365056</v>
+      </c>
+      <c r="G25">
+        <v>0.01757056078621001</v>
+      </c>
+      <c r="H25">
+        <v>0.04458313440645012</v>
+      </c>
+      <c r="I25">
+        <v>-0.02376040777356548</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01078206910662578</v>
+        <v>-0.00586722745064308</v>
       </c>
       <c r="C26">
-        <v>-0.01591410195666723</v>
+        <v>-0.02626484926614289</v>
       </c>
       <c r="D26">
-        <v>0.08232142947122448</v>
+        <v>-0.06944709346220246</v>
       </c>
       <c r="E26">
-        <v>0.01319040657481159</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.02559178034657732</v>
+      </c>
+      <c r="F26">
+        <v>0.02191586780979135</v>
+      </c>
+      <c r="G26">
+        <v>0.01262217239414462</v>
+      </c>
+      <c r="H26">
+        <v>0.08544653195642486</v>
+      </c>
+      <c r="I26">
+        <v>0.04916969540438319</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2283215364494282</v>
+        <v>-0.3191540217644598</v>
       </c>
       <c r="C28">
-        <v>0.2328763713759462</v>
+        <v>0.1103567149735553</v>
       </c>
       <c r="D28">
-        <v>0.02214240416181068</v>
+        <v>0.008228468589096103</v>
       </c>
       <c r="E28">
-        <v>0.06787603133207794</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05021062354760276</v>
+      </c>
+      <c r="F28">
+        <v>0.03686936069118835</v>
+      </c>
+      <c r="G28">
+        <v>-0.02342674368448568</v>
+      </c>
+      <c r="H28">
+        <v>-0.01448098584330725</v>
+      </c>
+      <c r="I28">
+        <v>0.1426200403423259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.002632931911386025</v>
+        <v>0.001710845088966086</v>
       </c>
       <c r="C29">
-        <v>-0.02325376119403201</v>
+        <v>-0.03036818380804662</v>
       </c>
       <c r="D29">
-        <v>0.1020374625513099</v>
+        <v>-0.09752935451912316</v>
       </c>
       <c r="E29">
-        <v>0.00876804405868876</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.04345667813327271</v>
+      </c>
+      <c r="F29">
+        <v>0.02890111696603079</v>
+      </c>
+      <c r="G29">
+        <v>0.01309157156090897</v>
+      </c>
+      <c r="H29">
+        <v>0.1266148508302387</v>
+      </c>
+      <c r="I29">
+        <v>0.01524683548258695</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.03051570205888881</v>
+        <v>-0.01782676989232557</v>
       </c>
       <c r="C30">
-        <v>-0.05909849978028958</v>
+        <v>-0.08404275485002634</v>
       </c>
       <c r="D30">
-        <v>0.1693721221342393</v>
+        <v>-0.1641070146281755</v>
       </c>
       <c r="E30">
-        <v>0.01710446109692739</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03961529290977042</v>
+      </c>
+      <c r="F30">
+        <v>0.03781229446638668</v>
+      </c>
+      <c r="G30">
+        <v>-0.03299643306655492</v>
+      </c>
+      <c r="H30">
+        <v>0.06163683268443364</v>
+      </c>
+      <c r="I30">
+        <v>-0.06925329845466725</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.05055912265151819</v>
+        <v>-0.01081787038525398</v>
       </c>
       <c r="C31">
-        <v>-0.08288801818162124</v>
+        <v>-0.092824140842714</v>
       </c>
       <c r="D31">
-        <v>0.07075233669525147</v>
+        <v>-0.0409444268968577</v>
       </c>
       <c r="E31">
-        <v>0.008302712914161341</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.008754813354949641</v>
+      </c>
+      <c r="F31">
+        <v>0.01096868173404729</v>
+      </c>
+      <c r="G31">
+        <v>-0.0008339877370595204</v>
+      </c>
+      <c r="H31">
+        <v>0.04698713866859153</v>
+      </c>
+      <c r="I31">
+        <v>0.07292888477390937</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.02229802087188533</v>
+        <v>-0.00863272685064197</v>
       </c>
       <c r="C32">
-        <v>-0.03566485685229894</v>
+        <v>-0.0454847821819428</v>
       </c>
       <c r="D32">
-        <v>0.1072951623969105</v>
+        <v>-0.1109618548319102</v>
       </c>
       <c r="E32">
-        <v>0.06155363339663789</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.006673139717332754</v>
+      </c>
+      <c r="F32">
+        <v>0.04860405042833248</v>
+      </c>
+      <c r="G32">
+        <v>-0.028315362118547</v>
+      </c>
+      <c r="H32">
+        <v>0.04890753235463878</v>
+      </c>
+      <c r="I32">
+        <v>0.07839117929864226</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.01820496718566876</v>
+        <v>-0.007166957414069931</v>
       </c>
       <c r="C33">
-        <v>-0.0424873000532556</v>
+        <v>-0.05688361332964008</v>
       </c>
       <c r="D33">
-        <v>0.1508258582747893</v>
+        <v>-0.1278223758040852</v>
       </c>
       <c r="E33">
-        <v>0.03404295592626026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.01516598875491535</v>
+      </c>
+      <c r="F33">
+        <v>0.02756198276485172</v>
+      </c>
+      <c r="G33">
+        <v>-0.004422375748998846</v>
+      </c>
+      <c r="H33">
+        <v>0.07251733669443014</v>
+      </c>
+      <c r="I33">
+        <v>0.01798277679425598</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02847110292646108</v>
+        <v>-0.00705218197243422</v>
       </c>
       <c r="C34">
-        <v>-0.05711391756671743</v>
+        <v>-0.06189376248895036</v>
       </c>
       <c r="D34">
-        <v>0.05030185043037833</v>
+        <v>-0.03164376721204291</v>
       </c>
       <c r="E34">
-        <v>-0.04938247145695966</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.02765614820719059</v>
+      </c>
+      <c r="F34">
+        <v>-0.03570484003901383</v>
+      </c>
+      <c r="G34">
+        <v>0.01248952038693446</v>
+      </c>
+      <c r="H34">
+        <v>0.05902369076020231</v>
+      </c>
+      <c r="I34">
+        <v>-0.01371628720197528</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0004171646213400342</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.004714682451020471</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.01573340212694238</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.004195674523890036</v>
+      </c>
+      <c r="F35">
+        <v>0.001977944352232542</v>
+      </c>
+      <c r="G35">
+        <v>0.003984670204149735</v>
+      </c>
+      <c r="H35">
+        <v>0.01403869600270293</v>
+      </c>
+      <c r="I35">
+        <v>-0.006780136371652329</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.01037565139133692</v>
+        <v>-0.006933974096518513</v>
       </c>
       <c r="C36">
-        <v>-0.006923365860884087</v>
+        <v>-0.02043480523118915</v>
       </c>
       <c r="D36">
-        <v>0.09455744610740735</v>
+        <v>-0.07854568216098286</v>
       </c>
       <c r="E36">
-        <v>0.03835778946908431</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.007610087209043851</v>
+      </c>
+      <c r="F36">
+        <v>0.03547957978376848</v>
+      </c>
+      <c r="G36">
+        <v>0.004018639826638504</v>
+      </c>
+      <c r="H36">
+        <v>0.06514652278200764</v>
+      </c>
+      <c r="I36">
+        <v>0.0340437004420454</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007428008919745438</v>
+        <v>-0.01414180829330475</v>
       </c>
       <c r="C38">
-        <v>-0.00773309546896285</v>
+        <v>-0.01547252376566504</v>
       </c>
       <c r="D38">
-        <v>0.08872043430822277</v>
+        <v>-0.08422838824202486</v>
       </c>
       <c r="E38">
-        <v>0.005963538668815692</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.00876645511831068</v>
+      </c>
+      <c r="F38">
+        <v>-0.007657621513252969</v>
+      </c>
+      <c r="G38">
+        <v>-0.01734929550781558</v>
+      </c>
+      <c r="H38">
+        <v>0.05636129675815237</v>
+      </c>
+      <c r="I38">
+        <v>0.03738625256447669</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.0252069513572207</v>
+        <v>-0.00691490326950279</v>
       </c>
       <c r="C39">
-        <v>-0.05644991102064742</v>
+        <v>-0.07508656132163509</v>
       </c>
       <c r="D39">
-        <v>0.117614269527006</v>
+        <v>-0.1060241152280905</v>
       </c>
       <c r="E39">
-        <v>-0.02350383932929196</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.04822115088204654</v>
+      </c>
+      <c r="F39">
+        <v>-0.005173232447559133</v>
+      </c>
+      <c r="G39">
+        <v>0.01823540720466262</v>
+      </c>
+      <c r="H39">
+        <v>0.1030568374050858</v>
+      </c>
+      <c r="I39">
+        <v>-0.06979221288644506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.01326769365222144</v>
+        <v>-0.01165683055950553</v>
       </c>
       <c r="C40">
-        <v>-0.0181008206664954</v>
+        <v>-0.02645814771308986</v>
       </c>
       <c r="D40">
-        <v>0.1186971210508272</v>
+        <v>-0.09733887190297945</v>
       </c>
       <c r="E40">
-        <v>-0.02670169316702787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.0436835181534999</v>
+      </c>
+      <c r="F40">
+        <v>-0.02465848388271656</v>
+      </c>
+      <c r="G40">
+        <v>-0.06200823016337544</v>
+      </c>
+      <c r="H40">
+        <v>0.08255388721928926</v>
+      </c>
+      <c r="I40">
+        <v>0.06044397524481533</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.01327708166231359</v>
+        <v>-0.0117312016338802</v>
       </c>
       <c r="C41">
-        <v>-0.008952043014068618</v>
+        <v>-0.01723564093612867</v>
       </c>
       <c r="D41">
-        <v>0.06084829196148015</v>
+        <v>-0.04218439999613229</v>
       </c>
       <c r="E41">
-        <v>0.02990798891081327</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.02140120387950047</v>
+      </c>
+      <c r="F41">
+        <v>0.01687904513979571</v>
+      </c>
+      <c r="G41">
+        <v>-0.0112260643768113</v>
+      </c>
+      <c r="H41">
+        <v>0.04733514463927854</v>
+      </c>
+      <c r="I41">
+        <v>0.04853470507930926</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.008548350613604948</v>
+        <v>-0.005921770297974537</v>
       </c>
       <c r="C43">
-        <v>-0.01317239207907635</v>
+        <v>-0.01856300173029414</v>
       </c>
       <c r="D43">
-        <v>0.07380277881135629</v>
+        <v>-0.05285201329522383</v>
       </c>
       <c r="E43">
-        <v>0.01847932341195721</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.005005452743605541</v>
+      </c>
+      <c r="F43">
+        <v>0.01346953523524477</v>
+      </c>
+      <c r="G43">
+        <v>-0.01034869933925767</v>
+      </c>
+      <c r="H43">
+        <v>0.07156442389957801</v>
+      </c>
+      <c r="I43">
+        <v>0.03685054239471232</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.0192658161385379</v>
+        <v>-0.01157786388635382</v>
       </c>
       <c r="C44">
-        <v>-0.02670614468689443</v>
+        <v>-0.04602233113937651</v>
       </c>
       <c r="D44">
-        <v>0.1169933332058533</v>
+        <v>-0.1198546396135753</v>
       </c>
       <c r="E44">
-        <v>0.04111771040186393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.02177612679591771</v>
+      </c>
+      <c r="F44">
+        <v>0.0279082497322013</v>
+      </c>
+      <c r="G44">
+        <v>-0.01738803487325072</v>
+      </c>
+      <c r="H44">
+        <v>0.05294559789250782</v>
+      </c>
+      <c r="I44">
+        <v>-0.05895467756073357</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.01147581638321641</v>
+        <v>0.001320384766060618</v>
       </c>
       <c r="C46">
-        <v>-0.02986658552298372</v>
+        <v>-0.04072267212962989</v>
       </c>
       <c r="D46">
-        <v>0.1000921004932439</v>
+        <v>-0.08436436247235228</v>
       </c>
       <c r="E46">
-        <v>0.01565101299782736</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.02548334575087817</v>
+      </c>
+      <c r="F46">
+        <v>0.02676851637334583</v>
+      </c>
+      <c r="G46">
+        <v>-0.003241190648999972</v>
+      </c>
+      <c r="H46">
+        <v>0.1431627067239799</v>
+      </c>
+      <c r="I46">
+        <v>0.02128598828391976</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09226586957533664</v>
+        <v>-0.03705586753859941</v>
       </c>
       <c r="C47">
-        <v>-0.09840624299763871</v>
+        <v>-0.1230839660527971</v>
       </c>
       <c r="D47">
-        <v>0.05745014324613722</v>
+        <v>-0.02254498462121022</v>
       </c>
       <c r="E47">
-        <v>0.02324767738735589</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.01863153402334702</v>
+      </c>
+      <c r="F47">
+        <v>-0.01427234015661044</v>
+      </c>
+      <c r="G47">
+        <v>0.04991614369891385</v>
+      </c>
+      <c r="H47">
+        <v>0.03237517587173532</v>
+      </c>
+      <c r="I47">
+        <v>0.1369017618341064</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.008521305892999782</v>
+        <v>-0.004719911745059036</v>
       </c>
       <c r="C48">
-        <v>-0.01673257094271427</v>
+        <v>-0.02891234583921004</v>
       </c>
       <c r="D48">
-        <v>0.09691287273475957</v>
+        <v>-0.08231725090244445</v>
       </c>
       <c r="E48">
-        <v>0.05014875540312018</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.004098058352467416</v>
+      </c>
+      <c r="F48">
+        <v>0.03984220657728508</v>
+      </c>
+      <c r="G48">
+        <v>-0.0001970457807358099</v>
+      </c>
+      <c r="H48">
+        <v>0.0976592499767463</v>
+      </c>
+      <c r="I48">
+        <v>0.02185011635946039</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.04616622665438018</v>
+        <v>-0.01339150930025336</v>
       </c>
       <c r="C50">
-        <v>-0.0604041877941509</v>
+        <v>-0.07537974521617011</v>
       </c>
       <c r="D50">
-        <v>0.06984559511696223</v>
+        <v>-0.04615254177173164</v>
       </c>
       <c r="E50">
-        <v>0.004701448652615313</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.0007648985394438832</v>
+      </c>
+      <c r="F50">
+        <v>0.006996772318838425</v>
+      </c>
+      <c r="G50">
+        <v>-0.02338663718300892</v>
+      </c>
+      <c r="H50">
+        <v>0.0395707426264499</v>
+      </c>
+      <c r="I50">
+        <v>0.1277687533435957</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.004399288744631093</v>
+        <v>-0.002138859660520057</v>
       </c>
       <c r="C51">
-        <v>-0.003595477377804246</v>
+        <v>-0.01640579305904498</v>
       </c>
       <c r="D51">
-        <v>0.05982925300640977</v>
+        <v>-0.06696549926354531</v>
       </c>
       <c r="E51">
-        <v>0.002002036381962384</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.0365762662834634</v>
+      </c>
+      <c r="F51">
+        <v>0.03701794973992305</v>
+      </c>
+      <c r="G51">
+        <v>-0.03369021213777663</v>
+      </c>
+      <c r="H51">
+        <v>0.05159514435164355</v>
+      </c>
+      <c r="I51">
+        <v>0.01030598623139616</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.119936488495761</v>
+        <v>-0.06042237501101788</v>
       </c>
       <c r="C53">
-        <v>-0.1118806738390469</v>
+        <v>-0.1562319067447643</v>
       </c>
       <c r="D53">
-        <v>0.0182230842929859</v>
+        <v>0.01516958398025498</v>
       </c>
       <c r="E53">
-        <v>0.05546383321911031</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03489154673806883</v>
+      </c>
+      <c r="F53">
+        <v>0.0473700638865844</v>
+      </c>
+      <c r="G53">
+        <v>-0.009784751639391298</v>
+      </c>
+      <c r="H53">
+        <v>0.004998841428835025</v>
+      </c>
+      <c r="I53">
+        <v>0.08470502953563236</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.01975274354447431</v>
+        <v>-0.01054621562633848</v>
       </c>
       <c r="C54">
-        <v>-0.02286453324661739</v>
+        <v>-0.04045371873910832</v>
       </c>
       <c r="D54">
-        <v>0.1050677190026583</v>
+        <v>-0.08265875128485946</v>
       </c>
       <c r="E54">
-        <v>-0.00274081926282647</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0112560089651549</v>
+      </c>
+      <c r="F54">
+        <v>-0.003901427430183472</v>
+      </c>
+      <c r="G54">
+        <v>-0.01707020659354978</v>
+      </c>
+      <c r="H54">
+        <v>0.09641074983939478</v>
+      </c>
+      <c r="I54">
+        <v>0.04907386574931126</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1053134760585531</v>
+        <v>-0.04742930834931087</v>
       </c>
       <c r="C55">
-        <v>-0.0940032062034845</v>
+        <v>-0.1274743937111076</v>
       </c>
       <c r="D55">
-        <v>0.005212532845569967</v>
+        <v>0.02725916826668996</v>
       </c>
       <c r="E55">
-        <v>0.01233047979061578</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.0008998303689808207</v>
+      </c>
+      <c r="F55">
+        <v>0.01297240907148098</v>
+      </c>
+      <c r="G55">
+        <v>-0.01404610863618729</v>
+      </c>
+      <c r="H55">
+        <v>0.009552390615209171</v>
+      </c>
+      <c r="I55">
+        <v>0.09108861319265628</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1481747996608399</v>
+        <v>-0.06646577680414371</v>
       </c>
       <c r="C56">
-        <v>-0.1237579988633089</v>
+        <v>-0.1854512872008524</v>
       </c>
       <c r="D56">
-        <v>0.005310411236168691</v>
+        <v>0.02479995704784316</v>
       </c>
       <c r="E56">
-        <v>0.01423094053001672</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.03444888900419524</v>
+      </c>
+      <c r="F56">
+        <v>0.0148375605494234</v>
+      </c>
+      <c r="G56">
+        <v>-0.06416209324705408</v>
+      </c>
+      <c r="H56">
+        <v>0.004281572595587268</v>
+      </c>
+      <c r="I56">
+        <v>0.1092603158246076</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.0005841542113379586</v>
+        <v>-0.005757168639088585</v>
       </c>
       <c r="C58">
-        <v>-0.01477502801765291</v>
+        <v>-0.04873458653689033</v>
       </c>
       <c r="D58">
-        <v>0.2275853089426298</v>
+        <v>-0.2856923511789857</v>
       </c>
       <c r="E58">
-        <v>0.07255169338476233</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02044057192398068</v>
+      </c>
+      <c r="F58">
+        <v>0.09604342573342316</v>
+      </c>
+      <c r="G58">
+        <v>-0.1333169046461354</v>
+      </c>
+      <c r="H58">
+        <v>-0.08530338060987452</v>
+      </c>
+      <c r="I58">
+        <v>-0.06355309008538003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.1599206459617985</v>
+        <v>-0.2466621541150687</v>
       </c>
       <c r="C59">
-        <v>0.1710808104324767</v>
+        <v>0.07840273477284562</v>
       </c>
       <c r="D59">
-        <v>0.05011948195728966</v>
+        <v>-0.05956896914652828</v>
       </c>
       <c r="E59">
-        <v>0.03652330816926926</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02993209418683362</v>
+      </c>
+      <c r="F59">
+        <v>0.01513880795772234</v>
+      </c>
+      <c r="G59">
+        <v>0.00132231136392806</v>
+      </c>
+      <c r="H59">
+        <v>-0.02097824460264262</v>
+      </c>
+      <c r="I59">
+        <v>0.03240027869955254</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.203093547963053</v>
+        <v>-0.1527483763175322</v>
       </c>
       <c r="C60">
-        <v>-0.08246016054831563</v>
+        <v>-0.1705089161371074</v>
       </c>
       <c r="D60">
-        <v>0.1563765122481196</v>
+        <v>-0.0822500640055778</v>
       </c>
       <c r="E60">
-        <v>-0.1825263060816287</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.2263245027290302</v>
+      </c>
+      <c r="F60">
+        <v>-0.162035710034319</v>
+      </c>
+      <c r="G60">
+        <v>0.2098308323774359</v>
+      </c>
+      <c r="H60">
+        <v>-0.2312197414165256</v>
+      </c>
+      <c r="I60">
+        <v>-0.02450037539112686</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.03521408783667745</v>
+        <v>-0.0139442541886211</v>
       </c>
       <c r="C61">
-        <v>-0.05171715256337533</v>
+        <v>-0.07096724270717016</v>
       </c>
       <c r="D61">
-        <v>0.1067261303853728</v>
+        <v>-0.08262771018944168</v>
       </c>
       <c r="E61">
-        <v>-0.01124805200327351</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.03544787068464796</v>
+      </c>
+      <c r="F61">
+        <v>-0.01455727063186596</v>
+      </c>
+      <c r="G61">
+        <v>0.03377001652755594</v>
+      </c>
+      <c r="H61">
+        <v>0.09180629438410014</v>
+      </c>
+      <c r="I61">
+        <v>-0.02033071981334988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.0118155225059019</v>
+        <v>-0.002205688918386049</v>
       </c>
       <c r="C63">
-        <v>-0.02547148624067528</v>
+        <v>-0.0360923701796429</v>
       </c>
       <c r="D63">
-        <v>0.09498158574996028</v>
+        <v>-0.07120566615794027</v>
       </c>
       <c r="E63">
-        <v>0.01093674810476031</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.02818858591683575</v>
+      </c>
+      <c r="F63">
+        <v>0.02196740462660118</v>
+      </c>
+      <c r="G63">
+        <v>-0.00496118866664557</v>
+      </c>
+      <c r="H63">
+        <v>0.06544055822188766</v>
+      </c>
+      <c r="I63">
+        <v>0.003241083197570565</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.06738432916816588</v>
+        <v>-0.02287191204435903</v>
       </c>
       <c r="C64">
-        <v>-0.07863267098121009</v>
+        <v>-0.104680248951051</v>
       </c>
       <c r="D64">
-        <v>0.03726836538921859</v>
+        <v>-0.02567890195218013</v>
       </c>
       <c r="E64">
-        <v>0.01837205924236764</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.02797803658648789</v>
+      </c>
+      <c r="F64">
+        <v>0.02201556067568109</v>
+      </c>
+      <c r="G64">
+        <v>0.05768155594241981</v>
+      </c>
+      <c r="H64">
+        <v>0.1064487265449138</v>
+      </c>
+      <c r="I64">
+        <v>-0.06644789220065027</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02879532219944924</v>
+        <v>-0.02350261706633355</v>
       </c>
       <c r="C65">
-        <v>-0.01463385709802466</v>
+        <v>-0.03894401394416094</v>
       </c>
       <c r="D65">
-        <v>0.1210596839042309</v>
+        <v>-0.1187042588241787</v>
       </c>
       <c r="E65">
-        <v>0.0001208064720525926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.04803935683086415</v>
+      </c>
+      <c r="F65">
+        <v>0.005576042618609435</v>
+      </c>
+      <c r="G65">
+        <v>0.02237095416524691</v>
+      </c>
+      <c r="H65">
+        <v>0.04736815661866878</v>
+      </c>
+      <c r="I65">
+        <v>0.003051317742728909</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02830200761450561</v>
+        <v>-0.005306783277658036</v>
       </c>
       <c r="C66">
-        <v>-0.06313612996292937</v>
+        <v>-0.0901376545851203</v>
       </c>
       <c r="D66">
-        <v>0.1213113427014502</v>
+        <v>-0.1296737158312032</v>
       </c>
       <c r="E66">
-        <v>-0.02649175610559452</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.03432753181098495</v>
+      </c>
+      <c r="F66">
+        <v>-0.01312293058582632</v>
+      </c>
+      <c r="G66">
+        <v>-0.0002440202104387542</v>
+      </c>
+      <c r="H66">
+        <v>0.05920492141992902</v>
+      </c>
+      <c r="I66">
+        <v>-0.07518220216935438</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02843435279247093</v>
+        <v>-0.02486203415422983</v>
       </c>
       <c r="C67">
-        <v>-0.01749240864039561</v>
+        <v>-0.02798309146912357</v>
       </c>
       <c r="D67">
-        <v>0.0443753339612857</v>
+        <v>-0.03410185710556161</v>
       </c>
       <c r="E67">
-        <v>-0.01830292309843154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.005840637173419512</v>
+      </c>
+      <c r="F67">
+        <v>-0.03041256908732397</v>
+      </c>
+      <c r="G67">
+        <v>-0.003296161990448783</v>
+      </c>
+      <c r="H67">
+        <v>0.06313759240414424</v>
+      </c>
+      <c r="I67">
+        <v>0.02646909755198327</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.1844133743249314</v>
+        <v>-0.266592641897891</v>
       </c>
       <c r="C68">
-        <v>0.1826705607178049</v>
+        <v>0.07739269970372775</v>
       </c>
       <c r="D68">
-        <v>0.02959406256303073</v>
+        <v>-0.03252832871401826</v>
       </c>
       <c r="E68">
-        <v>0.01257278481769032</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.005346471329425755</v>
+      </c>
+      <c r="F68">
+        <v>0.03048952575016325</v>
+      </c>
+      <c r="G68">
+        <v>-0.06766904416835184</v>
+      </c>
+      <c r="H68">
+        <v>-0.03726252444133048</v>
+      </c>
+      <c r="I68">
+        <v>0.09667042980692417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.07190329379780705</v>
+        <v>-0.02196491509747571</v>
       </c>
       <c r="C69">
-        <v>-0.1108539741196193</v>
+        <v>-0.1206116300286793</v>
       </c>
       <c r="D69">
-        <v>0.08016076723618776</v>
+        <v>-0.03586343712885807</v>
       </c>
       <c r="E69">
-        <v>0.00758506570982026</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.004570258198321521</v>
+      </c>
+      <c r="F69">
+        <v>-0.01698401219168003</v>
+      </c>
+      <c r="G69">
+        <v>0.03806000313105286</v>
+      </c>
+      <c r="H69">
+        <v>0.0333733064195015</v>
+      </c>
+      <c r="I69">
+        <v>0.09295535838277202</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.1897483764027378</v>
+        <v>-0.2673317374306243</v>
       </c>
       <c r="C71">
-        <v>0.200842493924174</v>
+        <v>0.09143332520869761</v>
       </c>
       <c r="D71">
-        <v>0.02753205966781286</v>
+        <v>-0.02108902761954048</v>
       </c>
       <c r="E71">
-        <v>0.01548330777095485</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>0.008780389014146439</v>
+      </c>
+      <c r="F71">
+        <v>0.01605140659915037</v>
+      </c>
+      <c r="G71">
+        <v>-0.03905827141870233</v>
+      </c>
+      <c r="H71">
+        <v>0.02229977155939852</v>
+      </c>
+      <c r="I71">
+        <v>0.1674114623476138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1158956955651162</v>
+        <v>-0.06287185518314758</v>
       </c>
       <c r="C72">
-        <v>-0.06397322704942493</v>
+        <v>-0.1222711161908164</v>
       </c>
       <c r="D72">
-        <v>0.09979660354795229</v>
+        <v>-0.06385486343692398</v>
       </c>
       <c r="E72">
-        <v>-0.0516816855299697</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.0878461069815836</v>
+      </c>
+      <c r="F72">
+        <v>-0.01710952409968391</v>
+      </c>
+      <c r="G72">
+        <v>0.02928173354476275</v>
+      </c>
+      <c r="H72">
+        <v>0.05912597188397295</v>
+      </c>
+      <c r="I72">
+        <v>-0.04463977170976682</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1871862882493588</v>
+        <v>-0.1403924471067283</v>
       </c>
       <c r="C73">
-        <v>-0.04203789279140643</v>
+        <v>-0.1378002785354973</v>
       </c>
       <c r="D73">
-        <v>0.2237033662237374</v>
+        <v>-0.09588081626686829</v>
       </c>
       <c r="E73">
-        <v>-0.2722837451164233</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.3781947589894845</v>
+      </c>
+      <c r="F73">
+        <v>-0.2459876870750061</v>
+      </c>
+      <c r="G73">
+        <v>0.418698989942089</v>
+      </c>
+      <c r="H73">
+        <v>-0.2028314763101236</v>
+      </c>
+      <c r="I73">
+        <v>-0.07204175399605656</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1186957361726428</v>
+        <v>-0.05442339048993527</v>
       </c>
       <c r="C74">
-        <v>-0.1013563898531584</v>
+        <v>-0.1442416739893236</v>
       </c>
       <c r="D74">
-        <v>-0.02314750196487825</v>
+        <v>0.04230449383518237</v>
       </c>
       <c r="E74">
-        <v>0.04245092963218148</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01317720371883855</v>
+      </c>
+      <c r="F74">
+        <v>0.04187072715382647</v>
+      </c>
+      <c r="G74">
+        <v>-0.005499110051057719</v>
+      </c>
+      <c r="H74">
+        <v>-0.01132812584967849</v>
+      </c>
+      <c r="I74">
+        <v>0.1162577432010456</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2552784635506729</v>
+        <v>-0.1241059445151857</v>
       </c>
       <c r="C75">
-        <v>-0.1728074278230536</v>
+        <v>-0.2679220970443255</v>
       </c>
       <c r="D75">
-        <v>-0.1047826839566105</v>
+        <v>0.1327594332029847</v>
       </c>
       <c r="E75">
-        <v>-0.008676909608615696</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09017498142786128</v>
+      </c>
+      <c r="F75">
+        <v>-0.03816086697905004</v>
+      </c>
+      <c r="G75">
+        <v>-0.104126142038564</v>
+      </c>
+      <c r="H75">
+        <v>0.01511593875912779</v>
+      </c>
+      <c r="I75">
+        <v>0.0894211271757742</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1555297998931891</v>
+        <v>-0.07096827476791712</v>
       </c>
       <c r="C76">
-        <v>-0.1245495768326554</v>
+        <v>-0.1832804757461328</v>
       </c>
       <c r="D76">
-        <v>0.02151158006967732</v>
+        <v>0.03024578210673236</v>
       </c>
       <c r="E76">
-        <v>0.01272719312806648</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02711463528555605</v>
+      </c>
+      <c r="F76">
+        <v>0.002765991400097464</v>
+      </c>
+      <c r="G76">
+        <v>-0.04702169933717939</v>
+      </c>
+      <c r="H76">
+        <v>0.04273316990625245</v>
+      </c>
+      <c r="I76">
+        <v>0.116389045459164</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.0186055853597053</v>
+        <v>-0.02910970829847008</v>
       </c>
       <c r="C77">
-        <v>-0.08131402229351317</v>
+        <v>-0.09405532338695334</v>
       </c>
       <c r="D77">
-        <v>0.07525255573998416</v>
+        <v>-0.2719351810651766</v>
       </c>
       <c r="E77">
-        <v>0.2153606703982583</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.768387868996435</v>
+      </c>
+      <c r="F77">
+        <v>-0.3155239548920143</v>
+      </c>
+      <c r="G77">
+        <v>0.2692482970059287</v>
+      </c>
+      <c r="H77">
+        <v>-0.2563648384488815</v>
+      </c>
+      <c r="I77">
+        <v>0.03342934807050472</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.03358369958047128</v>
+        <v>-0.01574691919283723</v>
       </c>
       <c r="C78">
-        <v>-0.06643216948081791</v>
+        <v>-0.08621767684251731</v>
       </c>
       <c r="D78">
-        <v>0.1535733529020654</v>
+        <v>-0.1383897462636639</v>
       </c>
       <c r="E78">
-        <v>0.03551202507745635</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.04439513430130777</v>
+      </c>
+      <c r="F78">
+        <v>0.0495085139749316</v>
+      </c>
+      <c r="G78">
+        <v>-0.03834722786499908</v>
+      </c>
+      <c r="H78">
+        <v>0.02640970357092161</v>
+      </c>
+      <c r="I78">
+        <v>0.05826581151850731</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1043348489393694</v>
+        <v>-0.04068450348237612</v>
       </c>
       <c r="C79">
-        <v>-0.1521903355134853</v>
+        <v>-0.1800584056897294</v>
       </c>
       <c r="D79">
-        <v>-0.09927293786145548</v>
+        <v>0.07273231861858226</v>
       </c>
       <c r="E79">
-        <v>0.8048076965017678</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.1133581756033439</v>
+      </c>
+      <c r="F79">
+        <v>0.8110495892104994</v>
+      </c>
+      <c r="G79">
+        <v>0.3708720089739685</v>
+      </c>
+      <c r="H79">
+        <v>-0.2447763736273239</v>
+      </c>
+      <c r="I79">
+        <v>-0.1429958149408474</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00861646935141354</v>
+        <v>0.0001843007422513215</v>
       </c>
       <c r="C80">
-        <v>-0.04720471537541034</v>
+        <v>-0.04693398590394552</v>
       </c>
       <c r="D80">
-        <v>0.04675625867551138</v>
+        <v>-0.04332367948629372</v>
       </c>
       <c r="E80">
-        <v>-0.006319242354420246</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.02480986023589684</v>
+      </c>
+      <c r="F80">
+        <v>0.00877931523321999</v>
+      </c>
+      <c r="G80">
+        <v>-0.02959171841536662</v>
+      </c>
+      <c r="H80">
+        <v>0.01898645273523077</v>
+      </c>
+      <c r="I80">
+        <v>0.05633249543947787</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1324783621842145</v>
+        <v>-0.05134662324497707</v>
       </c>
       <c r="C81">
-        <v>-0.1209251368050825</v>
+        <v>-0.1665094722229365</v>
       </c>
       <c r="D81">
-        <v>-0.06182003891048522</v>
+        <v>0.07599008989974357</v>
       </c>
       <c r="E81">
-        <v>0.06876328320451834</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06990756254626483</v>
+      </c>
+      <c r="F81">
+        <v>0.04331362963264298</v>
+      </c>
+      <c r="G81">
+        <v>-0.0424468682592465</v>
+      </c>
+      <c r="H81">
+        <v>0.07337122799244322</v>
+      </c>
+      <c r="I81">
+        <v>0.1357053699642277</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2809062105858688</v>
+        <v>-0.1098298351513032</v>
       </c>
       <c r="C82">
-        <v>-0.2656188929636505</v>
+        <v>-0.3284965468554125</v>
       </c>
       <c r="D82">
-        <v>-0.211778430161333</v>
+        <v>0.227405509552903</v>
       </c>
       <c r="E82">
-        <v>-0.1216457508227977</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.04519716738053995</v>
+      </c>
+      <c r="F82">
+        <v>-0.1317553073986684</v>
+      </c>
+      <c r="G82">
+        <v>-0.0633847736929256</v>
+      </c>
+      <c r="H82">
+        <v>0.09889416564789105</v>
+      </c>
+      <c r="I82">
+        <v>0.04452603641891598</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.001248445222039424</v>
+        <v>0.01022497590896078</v>
       </c>
       <c r="C83">
-        <v>-0.05426359075864461</v>
+        <v>-0.03439899781349092</v>
       </c>
       <c r="D83">
-        <v>0.01378304458182853</v>
+        <v>-0.0363123613307897</v>
       </c>
       <c r="E83">
-        <v>0.05070035531472148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08804700664524798</v>
+      </c>
+      <c r="F83">
+        <v>0.022884406790241</v>
+      </c>
+      <c r="G83">
+        <v>-0.02615400585003064</v>
+      </c>
+      <c r="H83">
+        <v>0.0001656192104012162</v>
+      </c>
+      <c r="I83">
+        <v>0.1403295851453297</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-6.878696978069316e-05</v>
+        <v>0.002220087730293061</v>
       </c>
       <c r="C84">
-        <v>-0.0001765133925687362</v>
+        <v>-0.01602180047677011</v>
       </c>
       <c r="D84">
-        <v>0.0007275266116847854</v>
+        <v>-0.03990517406847637</v>
       </c>
       <c r="E84">
-        <v>0.0004848275607534278</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.008696556941289228</v>
+      </c>
+      <c r="F84">
+        <v>0.0160472151970681</v>
+      </c>
+      <c r="G84">
+        <v>-0.04758519388754445</v>
+      </c>
+      <c r="H84">
+        <v>0.003341845574598524</v>
+      </c>
+      <c r="I84">
+        <v>-0.03476787553611574</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1574062043466887</v>
+        <v>-0.06667771874776104</v>
       </c>
       <c r="C85">
-        <v>-0.1266933815545974</v>
+        <v>-0.185868081637631</v>
       </c>
       <c r="D85">
-        <v>-0.03592325114778935</v>
+        <v>0.08651483697732423</v>
       </c>
       <c r="E85">
-        <v>0.02757475761245415</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.00107944577321155</v>
+      </c>
+      <c r="F85">
+        <v>0.07527705946782003</v>
+      </c>
+      <c r="G85">
+        <v>-0.02945575852515678</v>
+      </c>
+      <c r="H85">
+        <v>0.01763473139927116</v>
+      </c>
+      <c r="I85">
+        <v>0.09481591504824528</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01362801088045489</v>
+        <v>-0.01135932535918876</v>
       </c>
       <c r="C86">
-        <v>-0.01415752461366155</v>
+        <v>-0.02955095682722221</v>
       </c>
       <c r="D86">
-        <v>0.08238447378076863</v>
+        <v>-0.1077892817937335</v>
       </c>
       <c r="E86">
-        <v>0.04850742471367286</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.0437994828336015</v>
+      </c>
+      <c r="F86">
+        <v>-0.01043297600563836</v>
+      </c>
+      <c r="G86">
+        <v>0.01937139312834074</v>
+      </c>
+      <c r="H86">
+        <v>0.003224528239787414</v>
+      </c>
+      <c r="I86">
+        <v>0.09329681711225406</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01650763380779573</v>
+        <v>-0.01011587931879922</v>
       </c>
       <c r="C87">
-        <v>-0.02894045135652279</v>
+        <v>-0.0551157792996924</v>
       </c>
       <c r="D87">
-        <v>0.1292643526284993</v>
+        <v>-0.1470045355592802</v>
       </c>
       <c r="E87">
-        <v>0.04252756692842116</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>0.005546313180469406</v>
+      </c>
+      <c r="F87">
+        <v>0.04130170659238287</v>
+      </c>
+      <c r="G87">
+        <v>-0.06405599673643805</v>
+      </c>
+      <c r="H87">
+        <v>0.03122344698791884</v>
+      </c>
+      <c r="I87">
+        <v>-0.03836363271568845</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.06230654683669097</v>
+        <v>-0.0316280118048923</v>
       </c>
       <c r="C88">
-        <v>-0.04460277052333561</v>
+        <v>-0.06915596190258198</v>
       </c>
       <c r="D88">
-        <v>0.03446164729420368</v>
+        <v>-0.00605355313053059</v>
       </c>
       <c r="E88">
-        <v>0.02899444718030948</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.01412675022712562</v>
+      </c>
+      <c r="F88">
+        <v>0.02098681383824769</v>
+      </c>
+      <c r="G88">
+        <v>0.001342467916496624</v>
+      </c>
+      <c r="H88">
+        <v>0.03550850624541074</v>
+      </c>
+      <c r="I88">
+        <v>0.04881337995771039</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.2832005982781575</v>
+        <v>-0.4094204007409901</v>
       </c>
       <c r="C89">
-        <v>0.3616419720286994</v>
+        <v>0.1753398663141749</v>
       </c>
       <c r="D89">
-        <v>0.03006494555051904</v>
+        <v>-0.02806265776399685</v>
       </c>
       <c r="E89">
-        <v>0.09646252850077133</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02384731993565785</v>
+      </c>
+      <c r="F89">
+        <v>0.07047052345096673</v>
+      </c>
+      <c r="G89">
+        <v>-0.03627954538814543</v>
+      </c>
+      <c r="H89">
+        <v>0.1462319528880261</v>
+      </c>
+      <c r="I89">
+        <v>-0.3520021919014346</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2267467118182502</v>
+        <v>-0.3130080555496122</v>
       </c>
       <c r="C90">
-        <v>0.2664356796193597</v>
+        <v>0.1172640281026582</v>
       </c>
       <c r="D90">
-        <v>0.03624230633594994</v>
+        <v>-0.03486403969796342</v>
       </c>
       <c r="E90">
-        <v>-0.0082184432300216</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01439720482842287</v>
+      </c>
+      <c r="F90">
+        <v>-0.01870092339041954</v>
+      </c>
+      <c r="G90">
+        <v>-0.0655421121700121</v>
+      </c>
+      <c r="H90">
+        <v>-0.01620607618431891</v>
+      </c>
+      <c r="I90">
+        <v>0.08205574247049327</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.172809196118278</v>
+        <v>-0.07611835444462585</v>
       </c>
       <c r="C91">
-        <v>-0.1666396131194444</v>
+        <v>-0.2091976458238227</v>
       </c>
       <c r="D91">
-        <v>-0.09056700630523611</v>
+        <v>0.1055764415533239</v>
       </c>
       <c r="E91">
-        <v>0.1015812773827042</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06742263435391035</v>
+      </c>
+      <c r="F91">
+        <v>0.07070311305455658</v>
+      </c>
+      <c r="G91">
+        <v>-0.01406463078343666</v>
+      </c>
+      <c r="H91">
+        <v>0.01051619521936401</v>
+      </c>
+      <c r="I91">
+        <v>0.1170986040965158</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2075088247561799</v>
+        <v>-0.3325244526399223</v>
       </c>
       <c r="C92">
-        <v>0.281078809842623</v>
+        <v>0.1541526651525333</v>
       </c>
       <c r="D92">
-        <v>-0.04687585497497753</v>
+        <v>0.005268655358064045</v>
       </c>
       <c r="E92">
-        <v>0.05418114984523166</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.07494681691148429</v>
+      </c>
+      <c r="F92">
+        <v>0.0202432114036015</v>
+      </c>
+      <c r="G92">
+        <v>-0.02831930498270161</v>
+      </c>
+      <c r="H92">
+        <v>0.02971965175747024</v>
+      </c>
+      <c r="I92">
+        <v>-0.1580787398771938</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2516122930664927</v>
+        <v>-0.3314781617682598</v>
       </c>
       <c r="C93">
-        <v>0.2773662786536426</v>
+        <v>0.1234563040109625</v>
       </c>
       <c r="D93">
-        <v>0.02104248054987249</v>
+        <v>0.01102608474621708</v>
       </c>
       <c r="E93">
-        <v>0.00681092554187334</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02669915850041859</v>
+      </c>
+      <c r="F93">
+        <v>0.01099564591662454</v>
+      </c>
+      <c r="G93">
+        <v>0.01468456790221477</v>
+      </c>
+      <c r="H93">
+        <v>0.008503603951881138</v>
+      </c>
+      <c r="I93">
+        <v>0.1049299486478944</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.3206381871604524</v>
+        <v>-0.1488953087139981</v>
       </c>
       <c r="C94">
-        <v>-0.2301520621513354</v>
+        <v>-0.3484019935985997</v>
       </c>
       <c r="D94">
-        <v>-0.3706002886953846</v>
+        <v>0.3459251513814796</v>
       </c>
       <c r="E94">
-        <v>-0.1853476462669878</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.04572522842111642</v>
+      </c>
+      <c r="F94">
+        <v>-0.1061900511465984</v>
+      </c>
+      <c r="G94">
+        <v>-0.3125140844091173</v>
+      </c>
+      <c r="H94">
+        <v>-0.04709552805192027</v>
+      </c>
+      <c r="I94">
+        <v>-0.406959991637891</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.02102124924538697</v>
+        <v>-0.0196585411073487</v>
       </c>
       <c r="C95">
-        <v>-0.03846919350376025</v>
+        <v>-0.06123876792623748</v>
       </c>
       <c r="D95">
-        <v>0.07356813094959862</v>
+        <v>-0.1128745491145562</v>
       </c>
       <c r="E95">
-        <v>0.09388820600007532</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1921541021050957</v>
+      </c>
+      <c r="F95">
+        <v>-0.07731321146180677</v>
+      </c>
+      <c r="G95">
+        <v>0.1668642987134676</v>
+      </c>
+      <c r="H95">
+        <v>0.3548523865850373</v>
+      </c>
+      <c r="I95">
+        <v>-0.5019861533643308</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.0003731472148432083</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>-4.903987754113258e-05</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0003582592763785603</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.0008908929157447843</v>
+      </c>
+      <c r="F97">
+        <v>-0.001551991706140199</v>
+      </c>
+      <c r="G97">
+        <v>0.0009693027712229446</v>
+      </c>
+      <c r="H97">
+        <v>0.0002639265715071237</v>
+      </c>
+      <c r="I97">
+        <v>-0.000166420914579327</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1559800633416814</v>
+        <v>-0.1161355160018036</v>
       </c>
       <c r="C98">
-        <v>-0.06044715429383161</v>
+        <v>-0.1410475947003889</v>
       </c>
       <c r="D98">
-        <v>0.1124662250762314</v>
+        <v>-0.06078839151279736</v>
       </c>
       <c r="E98">
-        <v>-0.2013236621879489</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.2670584939573913</v>
+      </c>
+      <c r="F98">
+        <v>-0.1688697356814178</v>
+      </c>
+      <c r="G98">
+        <v>0.2486050093422848</v>
+      </c>
+      <c r="H98">
+        <v>-0.1896094981805635</v>
+      </c>
+      <c r="I98">
+        <v>-0.04319887674201463</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.003048067772221945</v>
+        <v>0.001332513606203584</v>
       </c>
       <c r="C101">
-        <v>-0.02266616721399248</v>
+        <v>-0.02982847043417274</v>
       </c>
       <c r="D101">
-        <v>0.102267751013215</v>
+        <v>-0.09714560843776687</v>
       </c>
       <c r="E101">
-        <v>0.009994923704515763</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.04275348683925245</v>
+      </c>
+      <c r="F101">
+        <v>0.02933155329026385</v>
+      </c>
+      <c r="G101">
+        <v>0.01250060096270402</v>
+      </c>
+      <c r="H101">
+        <v>0.1279244437624251</v>
+      </c>
+      <c r="I101">
+        <v>0.01514058783403751</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1222447865708426</v>
+        <v>-0.03833986574902453</v>
       </c>
       <c r="C102">
-        <v>-0.1414101684396654</v>
+        <v>-0.1527435213445398</v>
       </c>
       <c r="D102">
-        <v>-0.07275941101455324</v>
+        <v>0.0917553527926136</v>
       </c>
       <c r="E102">
-        <v>-0.04154510905937594</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.0297393078312245</v>
+      </c>
+      <c r="F102">
+        <v>-0.06836054485715001</v>
+      </c>
+      <c r="G102">
+        <v>0.01507079380604459</v>
+      </c>
+      <c r="H102">
+        <v>0.04782654276320853</v>
+      </c>
+      <c r="I102">
+        <v>0.01675956565455932</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
